--- a/hivaasproductinventory.xlsx
+++ b/hivaasproductinventory.xlsx
@@ -94,25 +94,19 @@
     <t>Kurti Sets</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://drive.google.com/uc?export=view&amp;id=1tdhzjNTZ1wz9PpZPp_IDgEco2W5qFF_H</t>
-    </r>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1QOD7aVjB5ew_Ze-mRvv_bDUtM32Jwl3S</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1lQyYG1Wjm_TH3b52v2AGtoK2Wy3QDq-K</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1i9tyuuZjy5tgtMTmHALQSWWBifEZpGln</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=view&amp;id=1JP4tC9ba-xECfg9Lld-t3GeSgHqzVeUV</t>
+    <t>https://drive.google.com/uc?export=view&amp;id=1vrRZMBrm3Td1QTAKmD9HxY4gSVNVawUx</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1RuU2CY_BoC-NWlGDE_0t4_8BIdRpztOB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1W6hK8A_KVryyeh-uO7Dcq15J6V3FVE1a</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1NrPvgVR43hq-KnL_FAUdw5ZI8PYx_-kC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1rMe7xsz_WvT3SEZxfycjZ5qm6SB7GTv4</t>
   </si>
 </sst>
 </file>
@@ -402,7 +396,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="65.75"/>
+    <col customWidth="1" min="6" max="6" width="68.5"/>
     <col customWidth="1" min="7" max="7" width="64.25"/>
     <col customWidth="1" min="8" max="8" width="65.5"/>
     <col customWidth="1" min="9" max="9" width="64.5"/>

--- a/hivaasproductinventory.xlsx
+++ b/hivaasproductinventory.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>product_code</t>
   </si>
@@ -107,6 +107,309 @@
   </si>
   <si>
     <t>https://drive.google.com/uc?export=view&amp;id=1rMe7xsz_WvT3SEZxfycjZ5qm6SB7GTv4</t>
+  </si>
+  <si>
+    <t>KS3P0003</t>
+  </si>
+  <si>
+    <t>Yello 3 piece kurti sets</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1QA8FFiIIG9XLhZY4QAtDj3MTYLus1mM6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1FvjaxMCDTmrZPPXOCg9hJuv84GoV5TzV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1XDpVE8Rma_hE39yfcBxukfofvQuXMpxU</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1MvZid_QLsEbPKAO6jKl36Fm4ksQxUmY9</t>
+  </si>
+  <si>
+    <t>KS3P0004</t>
+  </si>
+  <si>
+    <t>Pink 3 piece kurti sets</t>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>10DbOeI0-9XEq-Ffb-cdsxeo24SXTShp_</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1kK-ap0j-WEDaFO7rhnjxCSX5YkVmhdr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1TRQ1mv9j_Qt6qbLYZyG6Lsi5T_MZWPeP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1AYl_B5qBgq5TW2u1Fg43DtRXGT55wW7w</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1ypDDKjgWyXi_6_lEyZsSzNTL9FSZBSea</t>
+  </si>
+  <si>
+    <t>KS3P0005</t>
+  </si>
+  <si>
+    <t>Peach 3 piece kurti sets</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://drive.google.com/uc?export=view&amp;id=1JMjrcbE-sRWdq7kbF_wdngAVKHRONk59</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1b3GCPFq4_owRopZ9Pc1qpWyop36c8u-j</t>
+  </si>
+  <si>
+    <t>KS3P0006</t>
+  </si>
+  <si>
+    <t>Milky white 3 piece kurti sets</t>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1JGpdQZFT9iYR4gPWKhlirCu7Fr1JEzWA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1MX1XWFh6pKz2CfU21hAfzBMz8-NAFkd</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1thNSrSqcHaajkucB-3rclk_jk9RP7dpe</t>
+  </si>
+  <si>
+    <t>KS3P0007</t>
+  </si>
+  <si>
+    <t>White and blue 3 piece kurti sets</t>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1VvBKygnPa5rezz87Qj7bX-MeM_4I8I0E</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1KpveY2S9qQo6cndpvONjYXBNpr8Ij_O7</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1ouiKtfIxI5b6MrrSq4P5xofgD-bA5MnD</t>
+  </si>
+  <si>
+    <t>KS2P0001</t>
+  </si>
+  <si>
+    <t>Gray 2 piece kurti sets</t>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1usM5VJuWoUhWQ2Uxo_P2HOVfPKQ3vUsy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://drive.google.com/uc?export=view&amp;id=1685l5hLs2m871UKTuHRDTlMjEUVu-Alr</t>
+    </r>
+  </si>
+  <si>
+    <t>KS2P0002</t>
+  </si>
+  <si>
+    <t>Creamy white with green 2 piece kurti sets</t>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1qKDxZ7exVQko1b1YtPiIUQHO3u0axqvo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://drive.google.com/uc?export=view&amp;id=1iJAoVBKSd2EqSxtvddQxEzvXAQPAl5iP</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1Hf50ZtM2Eiv7TZgfqVR0_j4l9EYfs5sM</t>
+  </si>
+  <si>
+    <t>KS2P0003</t>
+  </si>
+  <si>
+    <t>Pink 2 peice kurti sets</t>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>105PW-qBV5H3_ZyEUfjHDYz66qndY6Nq7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1xjKkWJ-4dhDemldxhOTr26040OfPDY7z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://drive.google.com/uc?export=view&amp;id=1gbmw9qOwAmMSDgifR9ndznRT5H2HkWOU</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1hR2UBUAxqWEKhflNVE3ZV2j2IuBvLojj</t>
+  </si>
+  <si>
+    <t>KS2P0004</t>
+  </si>
+  <si>
+    <t>Peach musleen 2 piece kurti sets</t>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1Prlh7VC4_ZPpVPTjFcYSWNagQDJD-gUo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>1_dofRXMrqhb_plaRtPn74rooUkn_TvB9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://drive.google.com/uc?export=view&amp;id=</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>13654KBooZSggE0t5NEFeDiXz-ZvbHeAS</t>
+    </r>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=view&amp;id=1J4IlQmpwDPew-a7tEzN-40uv_3xB8lJz</t>
   </si>
 </sst>
 </file>
@@ -396,6 +699,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="12.0"/>
+    <col customWidth="1" min="2" max="2" width="25.13"/>
+    <col customWidth="1" min="3" max="3" width="5.0"/>
+    <col customWidth="1" min="4" max="4" width="8.25"/>
+    <col customWidth="1" min="5" max="5" width="7.75"/>
     <col customWidth="1" min="6" max="6" width="68.5"/>
     <col customWidth="1" min="7" max="7" width="64.25"/>
     <col customWidth="1" min="8" max="8" width="65.5"/>
@@ -514,7 +822,7 @@
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="str">
-        <f t="shared" ref="R2:R3" si="2">"{""XS"": " &amp; IF(K2=1,"true","false") &amp; ", " &amp;
+        <f t="shared" ref="R2:R12" si="2">"{""XS"": " &amp; IF(K2=1,"true","false") &amp; ", " &amp;
 """S"": " &amp; IF(L2=1,"true","false") &amp; ", " &amp;
 """M"": " &amp; IF(M2=1,"true","false") &amp; ", " &amp;
 """L"": " &amp; IF(N2=1,"true","false") &amp; ", " &amp;
@@ -595,6 +903,397 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1020.0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <f t="shared" ref="E4:E12" si="3">IF(OR(J4= 1, K4=1 ,L4=1, M4= 1 , N4= 1 , O4=1 , P4=1), TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{"XS": false, "S": false, "M": true, "L": true, "XL": false, "2XL": false, "3XL": true}</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1370.0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{"XS": false, "S": false, "M": false, "L": false, "XL": true, "2XL": false, "3XL": true}</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="5">
+        <v>725.0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{"XS": false, "S": false, "M": false, "L": true, "XL": true, "2XL": true, "3XL": true}</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5">
+        <v>725.0</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{"XS": false, "S": false, "M": true, "L": false, "XL": true, "2XL": true, "3XL": true}</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1300.0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{"XS": false, "S": false, "M": false, "L": false, "XL": false, "2XL": false, "3XL": false}</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="5">
+        <v>800.0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{"XS": false, "S": false, "M": true, "L": false, "XL": true, "2XL": false, "3XL": false}</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="5">
+        <v>830.0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{"XS": false, "S": false, "M": false, "L": false, "XL": true, "2XL": true, "3XL": false}</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="5">
+        <v>975.0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{"XS": false, "S": false, "M": false, "L": true, "XL": false, "2XL": false, "3XL": false}</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="5">
+        <v>755.0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>{"XS": false, "S": false, "M": true, "L": false, "XL": true, "2XL": false, "3XL": false}</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F2"/>
@@ -606,7 +1305,37 @@
     <hyperlink r:id="rId7" ref="H3"/>
     <hyperlink r:id="rId8" ref="I3"/>
     <hyperlink r:id="rId9" ref="J3"/>
+    <hyperlink r:id="rId10" ref="F4"/>
+    <hyperlink r:id="rId11" ref="G4"/>
+    <hyperlink r:id="rId12" ref="H4"/>
+    <hyperlink r:id="rId13" ref="I4"/>
+    <hyperlink r:id="rId14" ref="F5"/>
+    <hyperlink r:id="rId15" ref="G5"/>
+    <hyperlink r:id="rId16" ref="H5"/>
+    <hyperlink r:id="rId17" ref="I5"/>
+    <hyperlink r:id="rId18" ref="J5"/>
+    <hyperlink r:id="rId19" ref="F6"/>
+    <hyperlink r:id="rId20" ref="G6"/>
+    <hyperlink r:id="rId21" ref="F7"/>
+    <hyperlink r:id="rId22" ref="G7"/>
+    <hyperlink r:id="rId23" ref="H7"/>
+    <hyperlink r:id="rId24" ref="F8"/>
+    <hyperlink r:id="rId25" ref="G8"/>
+    <hyperlink r:id="rId26" ref="H8"/>
+    <hyperlink r:id="rId27" ref="F9"/>
+    <hyperlink r:id="rId28" ref="G9"/>
+    <hyperlink r:id="rId29" ref="F10"/>
+    <hyperlink r:id="rId30" ref="G10"/>
+    <hyperlink r:id="rId31" ref="H10"/>
+    <hyperlink r:id="rId32" ref="F11"/>
+    <hyperlink r:id="rId33" ref="G11"/>
+    <hyperlink r:id="rId34" ref="H11"/>
+    <hyperlink r:id="rId35" ref="I11"/>
+    <hyperlink r:id="rId36" ref="F12"/>
+    <hyperlink r:id="rId37" ref="G12"/>
+    <hyperlink r:id="rId38" ref="H12"/>
+    <hyperlink r:id="rId39" ref="I12"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>
--- a/hivaasproductinventory.xlsx
+++ b/hivaasproductinventory.xlsx
@@ -145,16 +145,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>https://drive.google.com/uc?export=view&amp;id=</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>1kK-ap0j-WEDaFO7rhnjxCSX5YkVmhdr</t>
-    </r>
+    <t>https://drive.google.com/uc?export=view&amp;id=1kK-ap0j-WEDaFO7rhnjxCSX5YkVmhdr8</t>
   </si>
   <si>
     <r>
@@ -704,12 +695,19 @@
     <col customWidth="1" min="3" max="3" width="5.0"/>
     <col customWidth="1" min="4" max="4" width="8.25"/>
     <col customWidth="1" min="5" max="5" width="7.75"/>
-    <col customWidth="1" min="6" max="6" width="68.5"/>
-    <col customWidth="1" min="7" max="7" width="64.25"/>
-    <col customWidth="1" min="8" max="8" width="65.5"/>
-    <col customWidth="1" min="9" max="9" width="64.5"/>
-    <col customWidth="1" min="10" max="10" width="64.13"/>
-    <col customWidth="1" min="18" max="18" width="58.75"/>
+    <col customWidth="1" min="6" max="6" width="68.63"/>
+    <col customWidth="1" min="7" max="7" width="67.13"/>
+    <col customWidth="1" min="8" max="8" width="69.0"/>
+    <col customWidth="1" min="9" max="9" width="67.5"/>
+    <col customWidth="1" min="10" max="10" width="65.75"/>
+    <col customWidth="1" min="11" max="11" width="9.25"/>
+    <col customWidth="1" min="12" max="12" width="9.88"/>
+    <col customWidth="1" min="13" max="13" width="7.38"/>
+    <col customWidth="1" min="14" max="14" width="7.5"/>
+    <col customWidth="1" min="15" max="15" width="8.63"/>
+    <col customWidth="1" min="16" max="16" width="7.75"/>
+    <col customWidth="1" min="17" max="17" width="12.13"/>
+    <col customWidth="1" min="18" max="18" width="60.63"/>
   </cols>
   <sheetData>
     <row r="1">
